--- a/coding method.xlsx
+++ b/coding method.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <r>
       <t>coding method</t>
@@ -124,6 +124,9 @@
   <si>
     <t>1S</t>
   </si>
+  <si>
+    <t>ppid</t>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +204,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -224,11 +227,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -237,6 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +661,14 @@
       </c>
       <c r="B14" s="3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
